--- a/fee.xlsx
+++ b/fee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\accounting-monitoring-with-sms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F975763-C52E-47FC-8884-F34D46865B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C551-89A7-4CD2-916F-DD670DE64CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>fee_name</t>
   </si>
@@ -44,13 +44,22 @@
     <t>balance</t>
   </si>
   <si>
-    <t>excel 1</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
-    <t>excel 11 all</t>
+    <t>excel 2</t>
+  </si>
+  <si>
+    <t>excel 22 all</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description122</t>
+  </si>
+  <si>
+    <t>description222</t>
   </si>
 </sst>
 </file>
@@ -402,49 +411,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1212F4-290B-4119-9CF1-BF00686C9464}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>462221518</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2">
+        <v>12311</v>
+      </c>
+      <c r="D2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>123</v>
       </c>
     </row>

--- a/fee.xlsx
+++ b/fee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C551-89A7-4CD2-916F-DD670DE64CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A0081-08B4-4179-9426-139B010F4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fee_name</t>
   </si>
@@ -47,32 +47,50 @@
     <t>all</t>
   </si>
   <si>
-    <t>excel 2</t>
-  </si>
-  <si>
-    <t>excel 22 all</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>description122</t>
   </si>
   <si>
     <t>description222</t>
+  </si>
+  <si>
+    <t>2022-201</t>
+  </si>
+  <si>
+    <t>excel for juan</t>
+  </si>
+  <si>
+    <t>excel all update</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>excel for maria</t>
+  </si>
+  <si>
+    <t>2022-203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1212F4-290B-4119-9CF1-BF00686C9464}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -441,13 +460,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>12311</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>111</v>
@@ -455,16 +474,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
         <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/fee.xlsx
+++ b/fee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A0081-08B4-4179-9426-139B010F4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC904D01-40C7-49FA-9434-4195F9182473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22665" windowHeight="14400" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>fee_name</t>
   </si>
@@ -47,38 +39,145 @@
     <t>all</t>
   </si>
   <si>
-    <t>description122</t>
-  </si>
-  <si>
-    <t>description222</t>
-  </si>
-  <si>
-    <t>2022-201</t>
-  </si>
-  <si>
-    <t>excel for juan</t>
-  </si>
-  <si>
-    <t>excel all update</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
-    <t>abs</t>
-  </si>
-  <si>
-    <t>excel for maria</t>
-  </si>
-  <si>
-    <t>2022-203</t>
+    <t>Prelim</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Pre-Finals</t>
+  </si>
+  <si>
+    <t>Finals</t>
+  </si>
+  <si>
+    <t>Upon enrollment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good day!
+     Please be informed that our Upon enrollment will be on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sunday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
+After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
+From: Accounting Dept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good day!
+     Please be informed that our Prelim will be on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sunday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
+After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
+From: Accounting Dept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good day!
+     Please be informed that our Pre Finals will be on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sunday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
+After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
+From: Accounting Dept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good day!
+     Please be informed that our Finals will be on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sunday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
+After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
+From: Accounting Dept.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +190,14 @@
       <color rgb="FF5F6368"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,9 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1212F4-290B-4119-9CF1-BF00686C9464}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
@@ -449,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -458,46 +568,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>12000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>111</v>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>12003</v>
       </c>
     </row>
   </sheetData>

--- a/fee.xlsx
+++ b/fee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC904D01-40C7-49FA-9434-4195F9182473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDD6A32-8D82-409A-9E7C-2E5610E91BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22665" windowHeight="14400" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6880DAA-E735-492F-A505-CF5E3909FFC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,36 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>fee_name</t>
   </si>
   <si>
-    <t>student_code</t>
-  </si>
-  <si>
     <t>balance</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>Prelim</t>
-  </si>
-  <si>
-    <t>Midterm</t>
-  </si>
-  <si>
-    <t>Pre-Finals</t>
-  </si>
-  <si>
-    <t>Finals</t>
-  </si>
-  <si>
-    <t>Upon enrollment</t>
   </si>
   <si>
     <r>
@@ -86,91 +65,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Good day!
-     Please be informed that our Prelim will be on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sunday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
-After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
-From: Accounting Dept.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Good day!
-     Please be informed that our Pre Finals will be on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sunday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
-After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
-From: Accounting Dept.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Good day!
-     Please be informed that our Finals will be on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sunday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. To be able to take the exam, kindly settle your due(s) on or before Sunday.
-After payment, pls. send your proof of payment to accounting@sltcfi.com for validation of your payment. Thank you
-From: Accounting Dept.</t>
-    </r>
+    <t>is_all_student</t>
+  </si>
+  <si>
+    <t>school_year</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
   </si>
 </sst>
 </file>
@@ -532,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,105 +456,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1212F4-290B-4119-9CF1-BF00686C9464}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>12000</v>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>12000</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>12001</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>12002</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>12003</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E457" xr:uid="{47274788-7FDE-4AD4-922E-AB221E7846BC}">
+      <formula1>"2020-2021,2021-2022,2022-2023,2023-2024,2024-2025"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275 E2:E275" xr:uid="{9A90714F-3799-4C05-AFB3-11F8EFEEFC6B}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F377" xr:uid="{36E6A7D7-4AF9-4E09-A6FE-119FDD1EF2DC}">
+      <formula1>"First,Second,Third,Fourth"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G397" xr:uid="{FF76A995-CC23-4D88-AE96-0CB924CAD749}">
+      <formula1>"First,Second"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
